--- a/Code/Results/Cases/Case_4_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.137766164737968</v>
+        <v>0.6261066896930174</v>
       </c>
       <c r="C2">
-        <v>0.1567267926429139</v>
+        <v>0.05682355408124806</v>
       </c>
       <c r="D2">
-        <v>0.5510525190330782</v>
+        <v>0.6622854274184249</v>
       </c>
       <c r="E2">
-        <v>0.2459053648572223</v>
+        <v>0.2700698995109008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008191963945267169</v>
+        <v>0.002503748502152242</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1455919873365872</v>
+        <v>0.1405152317203644</v>
       </c>
       <c r="K2">
-        <v>1.199211773461172</v>
+        <v>0.6056669903842078</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9727635771025334</v>
+        <v>2.041400171021401</v>
       </c>
       <c r="O2">
-        <v>2.786369774821054</v>
+        <v>5.156456206425617</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9894755711906384</v>
+        <v>0.5870295664328182</v>
       </c>
       <c r="C3">
-        <v>0.1361108735843573</v>
+        <v>0.05105316440096885</v>
       </c>
       <c r="D3">
-        <v>0.4972502088357942</v>
+        <v>0.6521792814765206</v>
       </c>
       <c r="E3">
-        <v>0.2206109492787931</v>
+        <v>0.2650986388462329</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008238487335342261</v>
+        <v>0.002506794515150612</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1296452287043834</v>
+        <v>0.1372110889403189</v>
       </c>
       <c r="K3">
-        <v>1.041183471611163</v>
+        <v>0.5634197884708101</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.021113075465447</v>
+        <v>2.06170018011521</v>
       </c>
       <c r="O3">
-        <v>2.699330989442444</v>
+        <v>5.167066794255078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8990810864814307</v>
+        <v>0.5633033008686539</v>
       </c>
       <c r="C4">
-        <v>0.1235024659908248</v>
+        <v>0.04751945293608628</v>
       </c>
       <c r="D4">
-        <v>0.464899018531213</v>
+        <v>0.6463117072544833</v>
       </c>
       <c r="E4">
-        <v>0.205392706689814</v>
+        <v>0.2621903322277888</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008267976010619072</v>
+        <v>0.002508764963276613</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1200444307110828</v>
+        <v>0.1352617626820418</v>
       </c>
       <c r="K4">
-        <v>0.9447747720998336</v>
+        <v>0.5377146719908126</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.052115645187669</v>
+        <v>2.074808703301706</v>
       </c>
       <c r="O4">
-        <v>2.650977224468022</v>
+        <v>5.176082454028034</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8623879395858012</v>
+        <v>0.553702232698015</v>
       </c>
       <c r="C5">
-        <v>0.1183740680453553</v>
+        <v>0.04608182339397615</v>
       </c>
       <c r="D5">
-        <v>0.4518744456648847</v>
+        <v>0.6440056015984226</v>
       </c>
       <c r="E5">
-        <v>0.1992633880777817</v>
+        <v>0.2610414130742171</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008280229978253403</v>
+        <v>0.00250959320581325</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1161757538255017</v>
+        <v>0.1344873593653659</v>
       </c>
       <c r="K5">
-        <v>0.9056207658393873</v>
+        <v>0.5272990582394925</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.065071634966387</v>
+        <v>2.080312485781562</v>
       </c>
       <c r="O5">
-        <v>2.632485503017449</v>
+        <v>5.180385133652692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8563031160157948</v>
+        <v>0.5521120753094806</v>
       </c>
       <c r="C6">
-        <v>0.1175230017344404</v>
+        <v>0.04584325144101342</v>
       </c>
       <c r="D6">
-        <v>0.449720947263188</v>
+        <v>0.6436278092765804</v>
       </c>
       <c r="E6">
-        <v>0.1982498029853588</v>
+        <v>0.2608528250792403</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008282279200301657</v>
+        <v>0.002509732263470489</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.115535885873804</v>
+        <v>0.1343599757007325</v>
       </c>
       <c r="K6">
-        <v>0.8991266812045637</v>
+        <v>0.5255731541371063</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.067242182521561</v>
+        <v>2.08123616494332</v>
       </c>
       <c r="O6">
-        <v>2.629486339837968</v>
+        <v>5.181137561009535</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8985856773269063</v>
+        <v>0.5631735433862275</v>
       </c>
       <c r="C7">
-        <v>0.1234332673347751</v>
+        <v>0.04750005484477526</v>
       </c>
       <c r="D7">
-        <v>0.46472273839575</v>
+        <v>0.6462802621294657</v>
       </c>
       <c r="E7">
-        <v>0.205309760223372</v>
+        <v>0.2621746907528362</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008268140305261025</v>
+        <v>0.002508776030650498</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1199920847045703</v>
+        <v>0.1352512379919659</v>
       </c>
       <c r="K7">
-        <v>0.944246216965638</v>
+        <v>0.5375739622495814</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.052289080750391</v>
+        <v>2.074882273560178</v>
       </c>
       <c r="O7">
-        <v>2.650723013341548</v>
+        <v>5.176137935931223</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.086485770746663</v>
+        <v>0.6125776428759764</v>
       </c>
       <c r="C8">
-        <v>0.1496062649669909</v>
+        <v>0.05483200926600773</v>
       </c>
       <c r="D8">
-        <v>0.5323514519052424</v>
+        <v>0.6587307917062333</v>
       </c>
       <c r="E8">
-        <v>0.2371150046353989</v>
+        <v>0.268325912764773</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008207816684655124</v>
+        <v>0.002504778020931833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1400513843382853</v>
+        <v>0.1393594696580465</v>
       </c>
       <c r="K8">
-        <v>1.144580397267362</v>
+        <v>0.5910516274083477</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9891560266721839</v>
+        <v>2.048265877539631</v>
       </c>
       <c r="O8">
-        <v>2.755261351519323</v>
+        <v>5.159595641771801</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.461230973735695</v>
+        <v>0.711568362696795</v>
       </c>
       <c r="C9">
-        <v>0.201470133592224</v>
+        <v>0.06928296945915235</v>
       </c>
       <c r="D9">
-        <v>0.6710322852040917</v>
+        <v>0.6858240307079768</v>
       </c>
       <c r="E9">
-        <v>0.3022752708193863</v>
+        <v>0.28153199162454</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008096608251301631</v>
+        <v>0.002497729320533128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1811036485378921</v>
+        <v>0.1480470305573363</v>
       </c>
       <c r="K9">
-        <v>1.54348780752332</v>
+        <v>0.6977736828757202</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8762056881860723</v>
+        <v>2.001184176447818</v>
       </c>
       <c r="O9">
-        <v>3.003852920713967</v>
+        <v>5.147007922203301</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.741991999669494</v>
+        <v>0.7855760813206984</v>
       </c>
       <c r="C10">
-        <v>0.2401214009506418</v>
+        <v>0.07994434051781241</v>
       </c>
       <c r="D10">
-        <v>0.7775740551113302</v>
+        <v>0.7073633476507553</v>
       </c>
       <c r="E10">
-        <v>0.3523156777882619</v>
+        <v>0.2919336926731901</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008018868394837809</v>
+        <v>0.002493028147587828</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2126179887025188</v>
+        <v>0.1548170347979436</v>
       </c>
       <c r="K10">
-        <v>1.841957411913086</v>
+        <v>0.7773058050520092</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8004487422406967</v>
+        <v>1.969710842547229</v>
       </c>
       <c r="O10">
-        <v>3.217882227618105</v>
+        <v>5.149882498298467</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.871288214061252</v>
+        <v>0.8195209748376442</v>
       </c>
       <c r="C11">
-        <v>0.2578771443981509</v>
+        <v>0.08480409905259023</v>
       </c>
       <c r="D11">
-        <v>0.8272849864044929</v>
+        <v>0.7175174539377167</v>
       </c>
       <c r="E11">
-        <v>0.3756639546933371</v>
+        <v>0.2968180552374236</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007984278955400868</v>
+        <v>0.002490992097054869</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2273231106538134</v>
+        <v>0.1579815402118214</v>
       </c>
       <c r="K11">
-        <v>1.979323335187075</v>
+        <v>0.8137302660756518</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7677024642824684</v>
+        <v>1.95606990719887</v>
       </c>
       <c r="O11">
-        <v>3.323231004802665</v>
+        <v>5.153827624869592</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.920511012205992</v>
+        <v>0.8324147990271058</v>
       </c>
       <c r="C12">
-        <v>0.2646305139213041</v>
+        <v>0.08664575554249154</v>
       </c>
       <c r="D12">
-        <v>0.8463091151715503</v>
+        <v>0.7214136860673648</v>
       </c>
       <c r="E12">
-        <v>0.3845996258512727</v>
+        <v>0.2986895900560214</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007971284757666858</v>
+        <v>0.002490235762553074</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2329513895346338</v>
+        <v>0.1591920770732429</v>
       </c>
       <c r="K12">
-        <v>2.031606067994375</v>
+        <v>0.8275582249521847</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7555627672498524</v>
+        <v>1.951001772181915</v>
       </c>
       <c r="O12">
-        <v>3.364378140320696</v>
+        <v>5.155701109199214</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.909897809277311</v>
+        <v>0.8296361271918329</v>
       </c>
       <c r="C13">
-        <v>0.263174655495348</v>
+        <v>0.08624906158073031</v>
       </c>
       <c r="D13">
-        <v>0.8422026994253713</v>
+        <v>0.7205722914575006</v>
       </c>
       <c r="E13">
-        <v>0.382670809988042</v>
+        <v>0.2982855462025569</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007974078784463989</v>
+        <v>0.002490398001079783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2317364679752814</v>
+        <v>0.1589308231573199</v>
       </c>
       <c r="K13">
-        <v>2.020333634610324</v>
+        <v>0.824578585107929</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7581654445030956</v>
+        <v>1.95208895229645</v>
       </c>
       <c r="O13">
-        <v>3.355458828651365</v>
+        <v>5.155280735602133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.875332362505787</v>
+        <v>0.8205809655947576</v>
       </c>
       <c r="C14">
-        <v>0.2584321249972419</v>
+        <v>0.08495558601059372</v>
       </c>
       <c r="D14">
-        <v>0.8288459862360753</v>
+        <v>0.717836975706291</v>
       </c>
       <c r="E14">
-        <v>0.3763971491234273</v>
+        <v>0.2969715880118713</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007983207873559896</v>
+        <v>0.002490929579114102</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2277849142977288</v>
+        <v>0.1580808870754709</v>
       </c>
       <c r="K14">
-        <v>1.983619131048982</v>
+        <v>0.8148672053567338</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7666984176196081</v>
+        <v>1.955650996119765</v>
       </c>
       <c r="O14">
-        <v>3.326590439717449</v>
+        <v>5.153974149139231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.854195105229905</v>
+        <v>0.8150395665949191</v>
       </c>
       <c r="C15">
-        <v>0.2555311989022186</v>
+        <v>0.08416347215316478</v>
       </c>
       <c r="D15">
-        <v>0.8206912620476032</v>
+        <v>0.7161681676285241</v>
       </c>
       <c r="E15">
-        <v>0.3725669312125959</v>
+        <v>0.2961696067455506</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007988813029461427</v>
+        <v>0.002491257094833554</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.225372465655866</v>
+        <v>0.1575618668488374</v>
       </c>
       <c r="K15">
-        <v>1.961166116089771</v>
+        <v>0.8089232254608305</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7719594799168625</v>
+        <v>1.95784553762671</v>
       </c>
       <c r="O15">
-        <v>3.30907428672046</v>
+        <v>5.15322326446136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.733576790682264</v>
+        <v>0.7833632703606384</v>
       </c>
       <c r="C16">
-        <v>0.2389649019058027</v>
+        <v>0.07962693820168454</v>
       </c>
       <c r="D16">
-        <v>0.7743521040711414</v>
+        <v>0.7067069061459961</v>
       </c>
       <c r="E16">
-        <v>0.3508024229084512</v>
+        <v>0.2916175576691344</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000802114387160015</v>
+        <v>0.00249316326566329</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2116649607187497</v>
+        <v>0.1546119344193357</v>
       </c>
       <c r="K16">
-        <v>1.833015284225809</v>
+        <v>0.7749302737711332</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8026244762481554</v>
+        <v>1.970615931637859</v>
       </c>
       <c r="O16">
-        <v>3.211166951409155</v>
+        <v>5.149677771902105</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.660008771980927</v>
+        <v>0.7640019075961106</v>
       </c>
       <c r="C17">
-        <v>0.2288496041782935</v>
+        <v>0.07684641186315844</v>
       </c>
       <c r="D17">
-        <v>0.7462574953375167</v>
+        <v>0.7009938011076997</v>
       </c>
       <c r="E17">
-        <v>0.3376072769574989</v>
+        <v>0.2888640960531106</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008041171188618109</v>
+        <v>0.002494358851005158</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2033549692151695</v>
+        <v>0.1528239745688467</v>
       </c>
       <c r="K17">
-        <v>1.754831315602473</v>
+        <v>0.7541391313415033</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8218854559549307</v>
+        <v>1.97862349174158</v>
       </c>
       <c r="O17">
-        <v>3.153221670337587</v>
+        <v>5.148178447476425</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.617840569121853</v>
+        <v>0.7528919933730549</v>
       </c>
       <c r="C18">
-        <v>0.223047534554297</v>
+        <v>0.07524805618911046</v>
       </c>
       <c r="D18">
-        <v>0.7302140241186521</v>
+        <v>0.6977412641982426</v>
       </c>
       <c r="E18">
-        <v>0.330072153735621</v>
+        <v>0.2872947394345786</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000805276377126783</v>
+        <v>0.002495056175667357</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1986095892877842</v>
+        <v>0.151803567981446</v>
       </c>
       <c r="K18">
-        <v>1.710009318326286</v>
+        <v>0.7422036916946695</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8331244792634749</v>
+        <v>1.983292891052447</v>
       </c>
       <c r="O18">
-        <v>3.120637922532751</v>
+        <v>5.147564309157104</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.603587243286626</v>
+        <v>0.7491348846322126</v>
       </c>
       <c r="C19">
-        <v>0.2210856601477502</v>
+        <v>0.07470704143251794</v>
       </c>
       <c r="D19">
-        <v>0.7248012664599628</v>
+        <v>0.6966457650415805</v>
       </c>
       <c r="E19">
-        <v>0.3275299350329135</v>
+        <v>0.2867658491149285</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008056701641811285</v>
+        <v>0.002495293938195142</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1970085827246777</v>
+        <v>0.1514594461079071</v>
       </c>
       <c r="K19">
-        <v>1.694857605315434</v>
+        <v>0.7381665326825555</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8369570017694059</v>
+        <v>1.984884799951995</v>
       </c>
       <c r="O19">
-        <v>3.109730479512422</v>
+        <v>5.147398998204864</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.66782484427705</v>
+        <v>0.766060245995078</v>
       </c>
       <c r="C20">
-        <v>0.2299247076511364</v>
+        <v>0.07714230776056752</v>
       </c>
       <c r="D20">
-        <v>0.7492360844502173</v>
+        <v>0.7015985052820497</v>
       </c>
       <c r="E20">
-        <v>0.3390062245107401</v>
+        <v>0.2891557204195365</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008039031701569386</v>
+        <v>0.002494230580206423</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2042359846313246</v>
+        <v>0.1530134798840521</v>
       </c>
       <c r="K20">
-        <v>1.763138627258144</v>
+        <v>0.7563499986871989</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8198183717580712</v>
+        <v>1.977764483604346</v>
       </c>
       <c r="O20">
-        <v>3.159312219298926</v>
+        <v>5.14831235982291</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.885477696577766</v>
+        <v>0.8232396137438798</v>
       </c>
       <c r="C21">
-        <v>0.259824276197179</v>
+        <v>0.0853354742751975</v>
       </c>
       <c r="D21">
-        <v>0.8327635837419507</v>
+        <v>0.7186390181356046</v>
       </c>
       <c r="E21">
-        <v>0.3782372343507348</v>
+        <v>0.2973569341952711</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007980523675484145</v>
+        <v>0.002490773044220296</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2289439030868436</v>
+        <v>0.1583302024919391</v>
       </c>
       <c r="K21">
-        <v>1.994395565729576</v>
+        <v>0.8177187316360346</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7641848875438022</v>
+        <v>1.954602093364283</v>
       </c>
       <c r="O21">
-        <v>3.335034871657058</v>
+        <v>5.154347622056974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.029266565591286</v>
+        <v>0.860840440801212</v>
       </c>
       <c r="C22">
-        <v>0.2795407573364912</v>
+        <v>0.09069815529014136</v>
       </c>
       <c r="D22">
-        <v>0.8885284048691062</v>
+        <v>0.7300737540943487</v>
       </c>
       <c r="E22">
-        <v>0.4044312799640721</v>
+        <v>0.3028447387794913</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007942888091119406</v>
+        <v>0.002488598842076576</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2454438647298076</v>
+        <v>0.1618761482147022</v>
       </c>
       <c r="K22">
-        <v>2.147100600978376</v>
+        <v>0.8580294326811497</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7293514977102902</v>
+        <v>1.940031860599785</v>
       </c>
       <c r="O22">
-        <v>3.457243620788745</v>
+        <v>5.160504462290049</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.952370680109709</v>
+        <v>0.8407511868276174</v>
       </c>
       <c r="C23">
-        <v>0.2689999620777428</v>
+        <v>0.0878352766477235</v>
       </c>
       <c r="D23">
-        <v>0.8586508721905659</v>
+        <v>0.7239435954250837</v>
       </c>
       <c r="E23">
-        <v>0.3903967347710804</v>
+        <v>0.2999040995339115</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007962922329565192</v>
+        <v>0.002489751454947831</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.23660295967656</v>
+        <v>0.159977094536444</v>
       </c>
       <c r="K23">
-        <v>2.065442936355453</v>
+        <v>0.8364964423145409</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7477981888931602</v>
+        <v>1.947756280423388</v>
       </c>
       <c r="O23">
-        <v>3.391307506109769</v>
+        <v>5.157015905826967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.664290804885269</v>
+        <v>0.7651296051659244</v>
       </c>
       <c r="C24">
-        <v>0.2294386121438663</v>
+        <v>0.07700853258110385</v>
       </c>
       <c r="D24">
-        <v>0.7478891279241111</v>
+        <v>0.7013250188350355</v>
       </c>
       <c r="E24">
-        <v>0.338373602403351</v>
+        <v>0.2890238345412826</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008039998718674325</v>
+        <v>0.002494288540448901</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2038375779366532</v>
+        <v>0.1529277811237932</v>
       </c>
       <c r="K24">
-        <v>1.759382498780326</v>
+        <v>0.7553504105050308</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8207523856587144</v>
+        <v>1.978152636385683</v>
       </c>
       <c r="O24">
-        <v>3.156556416924531</v>
+        <v>5.148251046032669</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.359021697419621</v>
+        <v>0.684563620834183</v>
       </c>
       <c r="C25">
-        <v>0.1873604249885261</v>
+        <v>0.06536581291118182</v>
       </c>
       <c r="D25">
-        <v>0.6327719556210525</v>
+        <v>0.6782077670391686</v>
       </c>
       <c r="E25">
-        <v>0.2843029634753194</v>
+        <v>0.2778367607061085</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008125969749457222</v>
+        <v>0.002499551970536264</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1697839180839864</v>
+        <v>0.1456289814951361</v>
       </c>
       <c r="K25">
-        <v>1.434756795812604</v>
+        <v>0.6687048311693502</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9055395943653259</v>
+        <v>2.013373598746249</v>
       </c>
       <c r="O25">
-        <v>2.931460220780025</v>
+        <v>5.148285862603359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6261066896930174</v>
+        <v>1.137766164737798</v>
       </c>
       <c r="C2">
-        <v>0.05682355408124806</v>
+        <v>0.1567267926432976</v>
       </c>
       <c r="D2">
-        <v>0.6622854274184249</v>
+        <v>0.5510525190329645</v>
       </c>
       <c r="E2">
-        <v>0.2700698995109008</v>
+        <v>0.2459053648572365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002503748502152242</v>
+        <v>0.0008191963945255524</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1405152317203644</v>
+        <v>0.1455919873365801</v>
       </c>
       <c r="K2">
-        <v>0.6056669903842078</v>
+        <v>1.199211773461059</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.041400171021401</v>
+        <v>0.972763577102576</v>
       </c>
       <c r="O2">
-        <v>5.156456206425617</v>
+        <v>2.786369774820997</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5870295664328182</v>
+        <v>0.9894755711906384</v>
       </c>
       <c r="C3">
-        <v>0.05105316440096885</v>
+        <v>0.1361108735845988</v>
       </c>
       <c r="D3">
-        <v>0.6521792814765206</v>
+        <v>0.4972502088357089</v>
       </c>
       <c r="E3">
-        <v>0.2650986388462329</v>
+        <v>0.2206109492788073</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002506794515150612</v>
+        <v>0.0008238487335333934</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1372110889403189</v>
+        <v>0.1296452287043337</v>
       </c>
       <c r="K3">
-        <v>0.5634197884708101</v>
+        <v>1.041183471611248</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.06170018011521</v>
+        <v>1.021113075465443</v>
       </c>
       <c r="O3">
-        <v>5.167066794255078</v>
+        <v>2.699330989442473</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5633033008686539</v>
+        <v>0.8990810864814307</v>
       </c>
       <c r="C4">
-        <v>0.04751945293608628</v>
+        <v>0.1235024659910664</v>
       </c>
       <c r="D4">
-        <v>0.6463117072544833</v>
+        <v>0.4648990185311845</v>
       </c>
       <c r="E4">
-        <v>0.2621903322277888</v>
+        <v>0.2053927066898282</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002508764963276613</v>
+        <v>0.0008267976010029648</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1352617626820418</v>
+        <v>0.1200444307109692</v>
       </c>
       <c r="K4">
-        <v>0.5377146719908126</v>
+        <v>0.9447747720997768</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.074808703301706</v>
+        <v>1.052115645187644</v>
       </c>
       <c r="O4">
-        <v>5.176082454028034</v>
+        <v>2.650977224467908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.553702232698015</v>
+        <v>0.8623879395856306</v>
       </c>
       <c r="C5">
-        <v>0.04608182339397615</v>
+        <v>0.1183740680452132</v>
       </c>
       <c r="D5">
-        <v>0.6440056015984226</v>
+        <v>0.4518744456647141</v>
       </c>
       <c r="E5">
-        <v>0.2610414130742171</v>
+        <v>0.1992633880778527</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00250959320581325</v>
+        <v>0.0008280229977669981</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1344873593653659</v>
+        <v>0.1161757538255372</v>
       </c>
       <c r="K5">
-        <v>0.5272990582394925</v>
+        <v>0.9056207658393589</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.080312485781562</v>
+        <v>1.065071634966312</v>
       </c>
       <c r="O5">
-        <v>5.180385133652692</v>
+        <v>2.632485503017364</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5521120753094806</v>
+        <v>0.8563031160159369</v>
       </c>
       <c r="C6">
-        <v>0.04584325144101342</v>
+        <v>0.1175230017343125</v>
       </c>
       <c r="D6">
-        <v>0.6436278092765804</v>
+        <v>0.4497209472631312</v>
       </c>
       <c r="E6">
-        <v>0.2608528250792403</v>
+        <v>0.1982498029853801</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002509732263470489</v>
+        <v>0.0008282279200521094</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1343599757007325</v>
+        <v>0.1155358858738751</v>
       </c>
       <c r="K6">
-        <v>0.5255731541371063</v>
+        <v>0.8991266812045922</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.08123616494332</v>
+        <v>1.067242182521557</v>
       </c>
       <c r="O6">
-        <v>5.181137561009535</v>
+        <v>2.629486339837939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5631735433862275</v>
+        <v>0.8985856773268495</v>
       </c>
       <c r="C7">
-        <v>0.04750005484477526</v>
+        <v>0.1234332673345193</v>
       </c>
       <c r="D7">
-        <v>0.6462802621294657</v>
+        <v>0.46472273839575</v>
       </c>
       <c r="E7">
-        <v>0.2621746907528362</v>
+        <v>0.2053097602233862</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002508776030650498</v>
+        <v>0.0008268140305005039</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1352512379919659</v>
+        <v>0.1199920847046272</v>
       </c>
       <c r="K7">
-        <v>0.5375739622495814</v>
+        <v>0.9442462169655528</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.074882273560178</v>
+        <v>1.052289080750398</v>
       </c>
       <c r="O7">
-        <v>5.176137935931223</v>
+        <v>2.650723013341576</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6125776428759764</v>
+        <v>1.086485770746663</v>
       </c>
       <c r="C8">
-        <v>0.05483200926600773</v>
+        <v>0.1496062649669909</v>
       </c>
       <c r="D8">
-        <v>0.6587307917062333</v>
+        <v>0.5323514519050434</v>
       </c>
       <c r="E8">
-        <v>0.268325912764773</v>
+        <v>0.2371150046354131</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002504778020931833</v>
+        <v>0.0008207816684945533</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1393594696580465</v>
+        <v>0.1400513843383564</v>
       </c>
       <c r="K8">
-        <v>0.5910516274083477</v>
+        <v>1.14458039726739</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.048265877539631</v>
+        <v>0.9891560266721839</v>
       </c>
       <c r="O8">
-        <v>5.159595641771801</v>
+        <v>2.755261351519295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.711568362696795</v>
+        <v>1.461230973735468</v>
       </c>
       <c r="C9">
-        <v>0.06928296945915235</v>
+        <v>0.2014701335918687</v>
       </c>
       <c r="D9">
-        <v>0.6858240307079768</v>
+        <v>0.6710322852039212</v>
       </c>
       <c r="E9">
-        <v>0.28153199162454</v>
+        <v>0.3022752708193508</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002497729320533128</v>
+        <v>0.0008096608250993785</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1480470305573363</v>
+        <v>0.181103648537956</v>
       </c>
       <c r="K9">
-        <v>0.6977736828757202</v>
+        <v>1.543487807523292</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.001184176447818</v>
+        <v>0.8762056881861362</v>
       </c>
       <c r="O9">
-        <v>5.147007922203301</v>
+        <v>3.003852920713939</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7855760813206984</v>
+        <v>1.741991999669551</v>
       </c>
       <c r="C10">
-        <v>0.07994434051781241</v>
+        <v>0.2401214009504997</v>
       </c>
       <c r="D10">
-        <v>0.7073633476507553</v>
+        <v>0.7775740551114154</v>
       </c>
       <c r="E10">
-        <v>0.2919336926731901</v>
+        <v>0.352315677788269</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002493028147587828</v>
+        <v>0.0008018868395174023</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1548170347979436</v>
+        <v>0.2126179887026325</v>
       </c>
       <c r="K10">
-        <v>0.7773058050520092</v>
+        <v>1.841957411913143</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.969710842547229</v>
+        <v>0.8004487422406861</v>
       </c>
       <c r="O10">
-        <v>5.149882498298467</v>
+        <v>3.217882227618105</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8195209748376442</v>
+        <v>1.871288214061224</v>
       </c>
       <c r="C11">
-        <v>0.08480409905259023</v>
+        <v>0.2578771443983641</v>
       </c>
       <c r="D11">
-        <v>0.7175174539377167</v>
+        <v>0.8272849864044645</v>
       </c>
       <c r="E11">
-        <v>0.2968180552374236</v>
+        <v>0.3756639546933371</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002490992097054869</v>
+        <v>0.0007984278956034411</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1579815402118214</v>
+        <v>0.2273231106538134</v>
       </c>
       <c r="K11">
-        <v>0.8137302660756518</v>
+        <v>1.979323335187019</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.95606990719887</v>
+        <v>0.7677024642823937</v>
       </c>
       <c r="O11">
-        <v>5.153827624869592</v>
+        <v>3.323231004802608</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8324147990271058</v>
+        <v>1.920511012206219</v>
       </c>
       <c r="C12">
-        <v>0.08664575554249154</v>
+        <v>0.2646305139213325</v>
       </c>
       <c r="D12">
-        <v>0.7214136860673648</v>
+        <v>0.846309115171664</v>
       </c>
       <c r="E12">
-        <v>0.2986895900560214</v>
+        <v>0.3845996258512727</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002490235762553074</v>
+        <v>0.0007971284757376518</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1591920770732429</v>
+        <v>0.2329513895346906</v>
       </c>
       <c r="K12">
-        <v>0.8275582249521847</v>
+        <v>2.031606067994318</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.951001772181915</v>
+        <v>0.7555627672498524</v>
       </c>
       <c r="O12">
-        <v>5.155701109199214</v>
+        <v>3.364378140320639</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8296361271918329</v>
+        <v>1.909897809277425</v>
       </c>
       <c r="C13">
-        <v>0.08624906158073031</v>
+        <v>0.2631746554953338</v>
       </c>
       <c r="D13">
-        <v>0.7205722914575006</v>
+        <v>0.8422026994255702</v>
       </c>
       <c r="E13">
-        <v>0.2982855462025569</v>
+        <v>0.3826708099879994</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002490398001079783</v>
+        <v>0.0007974078785454795</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1589308231573199</v>
+        <v>0.2317364679753382</v>
       </c>
       <c r="K13">
-        <v>0.824578585107929</v>
+        <v>2.020333634610267</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.95208895229645</v>
+        <v>0.7581654445030885</v>
       </c>
       <c r="O13">
-        <v>5.155280735602133</v>
+        <v>3.355458828651308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8205809655947576</v>
+        <v>1.875332362505816</v>
       </c>
       <c r="C14">
-        <v>0.08495558601059372</v>
+        <v>0.2584321249970998</v>
       </c>
       <c r="D14">
-        <v>0.717836975706291</v>
+        <v>0.8288459862360753</v>
       </c>
       <c r="E14">
-        <v>0.2969715880118713</v>
+        <v>0.3763971491233846</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002490929579114102</v>
+        <v>0.0007983207873157008</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1580808870754709</v>
+        <v>0.2277849142977288</v>
       </c>
       <c r="K14">
-        <v>0.8148672053567338</v>
+        <v>1.983619131049039</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.955650996119765</v>
+        <v>0.7666984176196117</v>
       </c>
       <c r="O14">
-        <v>5.153974149139231</v>
+        <v>3.326590439717535</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8150395665949191</v>
+        <v>1.854195105229792</v>
       </c>
       <c r="C15">
-        <v>0.08416347215316478</v>
+        <v>0.255531198902446</v>
       </c>
       <c r="D15">
-        <v>0.7161681676285241</v>
+        <v>0.8206912620475464</v>
       </c>
       <c r="E15">
-        <v>0.2961696067455506</v>
+        <v>0.3725669312125746</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002491257094833554</v>
+        <v>0.0007988813030157859</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1575618668488374</v>
+        <v>0.2253724656559228</v>
       </c>
       <c r="K15">
-        <v>0.8089232254608305</v>
+        <v>1.961166116089714</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.95784553762671</v>
+        <v>0.7719594799168519</v>
       </c>
       <c r="O15">
-        <v>5.15322326446136</v>
+        <v>3.309074286720403</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7833632703606384</v>
+        <v>1.733576790682264</v>
       </c>
       <c r="C16">
-        <v>0.07962693820168454</v>
+        <v>0.2389649019053195</v>
       </c>
       <c r="D16">
-        <v>0.7067069061459961</v>
+        <v>0.7743521040711698</v>
       </c>
       <c r="E16">
-        <v>0.2916175576691344</v>
+        <v>0.3508024229084796</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00249316326566329</v>
+        <v>0.0008021143871947345</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1546119344193357</v>
+        <v>0.2116649607187497</v>
       </c>
       <c r="K16">
-        <v>0.7749302737711332</v>
+        <v>1.83301528422578</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.970615931637859</v>
+        <v>0.8026244762481447</v>
       </c>
       <c r="O16">
-        <v>5.149677771902105</v>
+        <v>3.211166951409126</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7640019075961106</v>
+        <v>1.66000877198104</v>
       </c>
       <c r="C17">
-        <v>0.07684641186315844</v>
+        <v>0.2288496041779382</v>
       </c>
       <c r="D17">
-        <v>0.7009938011076997</v>
+        <v>0.7462574953374315</v>
       </c>
       <c r="E17">
-        <v>0.2888640960531106</v>
+        <v>0.337607276957506</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002494358851005158</v>
+        <v>0.000804117118862709</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1528239745688467</v>
+        <v>0.2033549692151269</v>
       </c>
       <c r="K17">
-        <v>0.7541391313415033</v>
+        <v>1.754831315602416</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.97862349174158</v>
+        <v>0.8218854559549413</v>
       </c>
       <c r="O17">
-        <v>5.148178447476425</v>
+        <v>3.153221670337558</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7528919933730549</v>
+        <v>1.617840569121967</v>
       </c>
       <c r="C18">
-        <v>0.07524805618911046</v>
+        <v>0.2230475345540555</v>
       </c>
       <c r="D18">
-        <v>0.6977412641982426</v>
+        <v>0.7302140241187942</v>
       </c>
       <c r="E18">
-        <v>0.2872947394345786</v>
+        <v>0.3300721537356068</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002495056175667357</v>
+        <v>0.000805276377127005</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.151803567981446</v>
+        <v>0.1986095892877842</v>
       </c>
       <c r="K18">
-        <v>0.7422036916946695</v>
+        <v>1.710009318326343</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.983292891052447</v>
+        <v>0.833124479263418</v>
       </c>
       <c r="O18">
-        <v>5.147564309157104</v>
+        <v>3.120637922532694</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7491348846322126</v>
+        <v>1.603587243286739</v>
       </c>
       <c r="C19">
-        <v>0.07470704143251794</v>
+        <v>0.2210856601475228</v>
       </c>
       <c r="D19">
-        <v>0.6966457650415805</v>
+        <v>0.7248012664600765</v>
       </c>
       <c r="E19">
-        <v>0.2867658491149285</v>
+        <v>0.3275299350329135</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002495293938195142</v>
+        <v>0.0008056701641845236</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1514594461079071</v>
+        <v>0.1970085827246351</v>
       </c>
       <c r="K19">
-        <v>0.7381665326825555</v>
+        <v>1.694857605315462</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.984884799951995</v>
+        <v>0.836957001769413</v>
       </c>
       <c r="O19">
-        <v>5.147398998204864</v>
+        <v>3.10973047951245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.766060245995078</v>
+        <v>1.667824844277192</v>
       </c>
       <c r="C20">
-        <v>0.07714230776056752</v>
+        <v>0.2299247076509232</v>
       </c>
       <c r="D20">
-        <v>0.7015985052820497</v>
+        <v>0.7492360844504162</v>
       </c>
       <c r="E20">
-        <v>0.2891557204195365</v>
+        <v>0.3390062245107472</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002494230580206423</v>
+        <v>0.0008039031701608113</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1530134798840521</v>
+        <v>0.2042359846313957</v>
       </c>
       <c r="K20">
-        <v>0.7563499986871989</v>
+        <v>1.763138627258229</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.977764483604346</v>
+        <v>0.8198183717580712</v>
       </c>
       <c r="O20">
-        <v>5.14831235982291</v>
+        <v>3.159312219298926</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8232396137438798</v>
+        <v>1.885477696577794</v>
       </c>
       <c r="C21">
-        <v>0.0853354742751975</v>
+        <v>0.2598242761972074</v>
       </c>
       <c r="D21">
-        <v>0.7186390181356046</v>
+        <v>0.8327635837418939</v>
       </c>
       <c r="E21">
-        <v>0.2973569341952711</v>
+        <v>0.378237234350749</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002490773044220296</v>
+        <v>0.00079805236757822</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1583302024919391</v>
+        <v>0.2289439030868863</v>
       </c>
       <c r="K21">
-        <v>0.8177187316360346</v>
+        <v>1.994395565729491</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.954602093364283</v>
+        <v>0.7641848875437987</v>
       </c>
       <c r="O21">
-        <v>5.154347622056974</v>
+        <v>3.335034871657001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.860840440801212</v>
+        <v>2.029266565591286</v>
       </c>
       <c r="C22">
-        <v>0.09069815529014136</v>
+        <v>0.2795407573364628</v>
       </c>
       <c r="D22">
-        <v>0.7300737540943487</v>
+        <v>0.8885284048690778</v>
       </c>
       <c r="E22">
-        <v>0.3028447387794913</v>
+        <v>0.404431279964129</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002488598842076576</v>
+        <v>0.0007942888091114562</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1618761482147022</v>
+        <v>0.2454438647299213</v>
       </c>
       <c r="K22">
-        <v>0.8580294326811497</v>
+        <v>2.147100600978348</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.940031860599785</v>
+        <v>0.7293514977102902</v>
       </c>
       <c r="O22">
-        <v>5.160504462290049</v>
+        <v>3.457243620788745</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8407511868276174</v>
+        <v>1.952370680109624</v>
       </c>
       <c r="C23">
-        <v>0.0878352766477235</v>
+        <v>0.2689999620776007</v>
       </c>
       <c r="D23">
-        <v>0.7239435954250837</v>
+        <v>0.8586508721907649</v>
       </c>
       <c r="E23">
-        <v>0.2999040995339115</v>
+        <v>0.3903967347710733</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002489751454947831</v>
+        <v>0.0007962922329849711</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.159977094536444</v>
+        <v>0.2366029596766026</v>
       </c>
       <c r="K23">
-        <v>0.8364964423145409</v>
+        <v>2.065442936355481</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.947756280423388</v>
+        <v>0.7477981888931566</v>
       </c>
       <c r="O23">
-        <v>5.157015905826967</v>
+        <v>3.391307506109769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7651296051659244</v>
+        <v>1.664290804885439</v>
       </c>
       <c r="C24">
-        <v>0.07700853258110385</v>
+        <v>0.2294386121444489</v>
       </c>
       <c r="D24">
-        <v>0.7013250188350355</v>
+        <v>0.7478891279238553</v>
       </c>
       <c r="E24">
-        <v>0.2890238345412826</v>
+        <v>0.338373602403351</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002494288540448901</v>
+        <v>0.0008039998718005971</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1529277811237932</v>
+        <v>0.2038375779366959</v>
       </c>
       <c r="K24">
-        <v>0.7553504105050308</v>
+        <v>1.759382498780298</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.978152636385683</v>
+        <v>0.8207523856586576</v>
       </c>
       <c r="O24">
-        <v>5.148251046032669</v>
+        <v>3.156556416924559</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.684563620834183</v>
+        <v>1.359021697419621</v>
       </c>
       <c r="C25">
-        <v>0.06536581291118182</v>
+        <v>0.1873604249882845</v>
       </c>
       <c r="D25">
-        <v>0.6782077670391686</v>
+        <v>0.6327719556209388</v>
       </c>
       <c r="E25">
-        <v>0.2778367607061085</v>
+        <v>0.2843029634753194</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002499551970536264</v>
+        <v>0.0008125969749464773</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1456289814951361</v>
+        <v>0.169783918083958</v>
       </c>
       <c r="K25">
-        <v>0.6687048311693502</v>
+        <v>1.434756795812604</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.013373598746249</v>
+        <v>0.905539594365333</v>
       </c>
       <c r="O25">
-        <v>5.148285862603359</v>
+        <v>2.931460220779996</v>
       </c>
     </row>
   </sheetData>
